--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Hbegf-Cd44.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Hbegf-Cd44.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>5.600099</v>
+        <v>21.691274</v>
       </c>
       <c r="H2">
-        <v>16.800297</v>
+        <v>65.07382200000001</v>
       </c>
       <c r="I2">
-        <v>0.2373417163582682</v>
+        <v>0.5166093651894792</v>
       </c>
       <c r="J2">
-        <v>0.2373417163582682</v>
+        <v>0.5166093651894791</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>10.45505566666667</v>
+        <v>43.70915533333334</v>
       </c>
       <c r="N2">
-        <v>31.365167</v>
+        <v>131.127466</v>
       </c>
       <c r="O2">
-        <v>0.008202258778219226</v>
+        <v>0.0248563228721197</v>
       </c>
       <c r="P2">
-        <v>0.008202258778219226</v>
+        <v>0.02485632287211969</v>
       </c>
       <c r="Q2">
-        <v>58.54934678384434</v>
+        <v>948.1072646438948</v>
       </c>
       <c r="R2">
-        <v>526.944121054599</v>
+        <v>8532.965381795053</v>
       </c>
       <c r="S2">
-        <v>0.001946738176437223</v>
+        <v>0.01284100917991049</v>
       </c>
       <c r="T2">
-        <v>0.001946738176437223</v>
+        <v>0.01284100917991048</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>5.600099</v>
+        <v>21.691274</v>
       </c>
       <c r="H3">
-        <v>16.800297</v>
+        <v>65.07382200000001</v>
       </c>
       <c r="I3">
-        <v>0.2373417163582682</v>
+        <v>0.5166093651894792</v>
       </c>
       <c r="J3">
-        <v>0.2373417163582682</v>
+        <v>0.5166093651894791</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>502.283203</v>
       </c>
       <c r="O3">
-        <v>0.1313513430666197</v>
+        <v>0.09521203945945574</v>
       </c>
       <c r="P3">
-        <v>0.1313513430666197</v>
+        <v>0.09521203945945574</v>
       </c>
       <c r="Q3">
-        <v>937.6118876123658</v>
+        <v>3631.720860623542</v>
       </c>
       <c r="R3">
-        <v>8438.506988511292</v>
+        <v>32685.48774561187</v>
       </c>
       <c r="S3">
-        <v>0.03117515320939524</v>
+        <v>0.04918743126354507</v>
       </c>
       <c r="T3">
-        <v>0.03117515320939523</v>
+        <v>0.04918743126354506</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>5.600099</v>
+        <v>21.691274</v>
       </c>
       <c r="H4">
-        <v>16.800297</v>
+        <v>65.07382200000001</v>
       </c>
       <c r="I4">
-        <v>0.2373417163582682</v>
+        <v>0.5166093651894792</v>
       </c>
       <c r="J4">
-        <v>0.2373417163582682</v>
+        <v>0.5166093651894791</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>227.495678</v>
+        <v>456.387034</v>
       </c>
       <c r="N4">
-        <v>682.4870339999999</v>
+        <v>1369.161102</v>
       </c>
       <c r="O4">
-        <v>0.1784761823728629</v>
+        <v>0.259536094560534</v>
       </c>
       <c r="P4">
-        <v>0.1784761823728629</v>
+        <v>0.259536094560534</v>
       </c>
       <c r="Q4">
-        <v>1273.998318872122</v>
+        <v>9899.616204541318</v>
       </c>
       <c r="R4">
-        <v>11465.9848698491</v>
+        <v>89096.54584087186</v>
       </c>
       <c r="S4">
-        <v>0.04235984345344658</v>
+        <v>0.1340787770546741</v>
       </c>
       <c r="T4">
-        <v>0.04235984345344657</v>
+        <v>0.1340787770546741</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>5.600099</v>
+        <v>21.691274</v>
       </c>
       <c r="H5">
-        <v>16.800297</v>
+        <v>65.07382200000001</v>
       </c>
       <c r="I5">
-        <v>0.2373417163582682</v>
+        <v>0.5166093651894792</v>
       </c>
       <c r="J5">
-        <v>0.2373417163582682</v>
+        <v>0.5166093651894791</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>55.51027300000001</v>
+        <v>113.6484576666667</v>
       </c>
       <c r="N5">
-        <v>166.530819</v>
+        <v>340.945373</v>
       </c>
       <c r="O5">
-        <v>0.04354923001005501</v>
+        <v>0.06462908596924523</v>
       </c>
       <c r="P5">
-        <v>0.04354923001005501</v>
+        <v>0.06462908596924523</v>
       </c>
       <c r="Q5">
-        <v>310.8630243170271</v>
+        <v>2465.179834925068</v>
       </c>
       <c r="R5">
-        <v>2797.767218853243</v>
+        <v>22186.61851432561</v>
       </c>
       <c r="S5">
-        <v>0.01033604899666746</v>
+        <v>0.03338799107534805</v>
       </c>
       <c r="T5">
-        <v>0.01033604899666746</v>
+        <v>0.03338799107534805</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>5.600099</v>
+        <v>21.691274</v>
       </c>
       <c r="H6">
-        <v>16.800297</v>
+        <v>65.07382200000001</v>
       </c>
       <c r="I6">
-        <v>0.2373417163582682</v>
+        <v>0.5166093651894792</v>
       </c>
       <c r="J6">
-        <v>0.2373417163582682</v>
+        <v>0.5166093651894791</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>665.7853396666667</v>
+        <v>750.176575</v>
       </c>
       <c r="N6">
-        <v>1997.356019</v>
+        <v>2250.529725</v>
       </c>
       <c r="O6">
-        <v>0.522325640417338</v>
+        <v>0.4266069892474147</v>
       </c>
       <c r="P6">
-        <v>0.522325640417338</v>
+        <v>0.4266069892474147</v>
       </c>
       <c r="Q6">
-        <v>3728.46381488196</v>
+        <v>16272.28563670655</v>
       </c>
       <c r="R6">
-        <v>33556.17433393765</v>
+        <v>146450.5707303589</v>
       </c>
       <c r="S6">
-        <v>0.1239696639945826</v>
+        <v>0.2203891659005019</v>
       </c>
       <c r="T6">
-        <v>0.1239696639945826</v>
+        <v>0.2203891659005019</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>5.600099</v>
+        <v>21.691274</v>
       </c>
       <c r="H7">
-        <v>16.800297</v>
+        <v>65.07382200000001</v>
       </c>
       <c r="I7">
-        <v>0.2373417163582682</v>
+        <v>0.5166093651894792</v>
       </c>
       <c r="J7">
-        <v>0.2373417163582682</v>
+        <v>0.5166093651894791</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>147.9815903333333</v>
+        <v>227.123347</v>
       </c>
       <c r="N7">
-        <v>443.9447709999999</v>
+        <v>681.370041</v>
       </c>
       <c r="O7">
-        <v>0.1160953453549051</v>
+        <v>0.1291594678912306</v>
       </c>
       <c r="P7">
-        <v>0.1160953453549051</v>
+        <v>0.1291594678912306</v>
       </c>
       <c r="Q7">
-        <v>828.7115560441096</v>
+        <v>4926.594751574079</v>
       </c>
       <c r="R7">
-        <v>7458.404004396986</v>
+        <v>44339.35276416671</v>
       </c>
       <c r="S7">
-        <v>0.02755426852773908</v>
+        <v>0.06672499071549957</v>
       </c>
       <c r="T7">
-        <v>0.02755426852773908</v>
+        <v>0.06672499071549956</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>16.819787</v>
       </c>
       <c r="I8">
-        <v>0.2376170561365961</v>
+        <v>0.1335292628838099</v>
       </c>
       <c r="J8">
-        <v>0.237617056136596</v>
+        <v>0.1335292628838099</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>10.45505566666667</v>
+        <v>43.70915533333334</v>
       </c>
       <c r="N8">
-        <v>31.365167</v>
+        <v>131.127466</v>
       </c>
       <c r="O8">
-        <v>0.008202258778219226</v>
+        <v>0.0248563228721197</v>
       </c>
       <c r="P8">
-        <v>0.008202258778219226</v>
+        <v>0.02485632287211969</v>
       </c>
       <c r="Q8">
-        <v>58.61726979549211</v>
+        <v>245.0595608855269</v>
       </c>
       <c r="R8">
-        <v>527.555428159429</v>
+        <v>2205.536047969742</v>
       </c>
       <c r="S8">
-        <v>0.001948996584551006</v>
+        <v>0.003319046471116127</v>
       </c>
       <c r="T8">
-        <v>0.001948996584551005</v>
+        <v>0.003319046471116127</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>16.819787</v>
       </c>
       <c r="I9">
-        <v>0.2376170561365961</v>
+        <v>0.1335292628838099</v>
       </c>
       <c r="J9">
-        <v>0.237617056136596</v>
+        <v>0.1335292628838099</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>502.283203</v>
       </c>
       <c r="O9">
-        <v>0.1313513430666197</v>
+        <v>0.09521203945945574</v>
       </c>
       <c r="P9">
-        <v>0.1313513430666197</v>
+        <v>0.09521203945945574</v>
       </c>
       <c r="Q9">
         <v>938.6996097930846</v>
@@ -1013,10 +1013,10 @@
         <v>8448.296488137761</v>
       </c>
       <c r="S9">
-        <v>0.03121131945907827</v>
+        <v>0.01271359344668535</v>
       </c>
       <c r="T9">
-        <v>0.03121131945907826</v>
+        <v>0.01271359344668535</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>16.819787</v>
       </c>
       <c r="I10">
-        <v>0.2376170561365961</v>
+        <v>0.1335292628838099</v>
       </c>
       <c r="J10">
-        <v>0.237617056136596</v>
+        <v>0.1335292628838099</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>227.495678</v>
+        <v>456.387034</v>
       </c>
       <c r="N10">
-        <v>682.4870339999999</v>
+        <v>1369.161102</v>
       </c>
       <c r="O10">
-        <v>0.1784761823728629</v>
+        <v>0.259536094560534</v>
       </c>
       <c r="P10">
-        <v>0.1784761823728629</v>
+        <v>0.259536094560534</v>
       </c>
       <c r="Q10">
-        <v>1275.476282460195</v>
+        <v>2558.777567147253</v>
       </c>
       <c r="R10">
-        <v>11479.28654214176</v>
+        <v>23028.99810432527</v>
       </c>
       <c r="S10">
-        <v>0.04240898504593793</v>
+        <v>0.03465566339841089</v>
       </c>
       <c r="T10">
-        <v>0.04240898504593792</v>
+        <v>0.03465566339841089</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>16.819787</v>
       </c>
       <c r="I11">
-        <v>0.2376170561365961</v>
+        <v>0.1335292628838099</v>
       </c>
       <c r="J11">
-        <v>0.237617056136596</v>
+        <v>0.1335292628838099</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>55.51027300000001</v>
+        <v>113.6484576666667</v>
       </c>
       <c r="N11">
-        <v>166.530819</v>
+        <v>340.945373</v>
       </c>
       <c r="O11">
-        <v>0.04354923001005501</v>
+        <v>0.06462908596924523</v>
       </c>
       <c r="P11">
-        <v>0.04354923001005501</v>
+        <v>0.06462908596924523</v>
       </c>
       <c r="Q11">
-        <v>311.2236560572837</v>
+        <v>637.1809502772834</v>
       </c>
       <c r="R11">
-        <v>2801.012904515553</v>
+        <v>5734.628552495551</v>
       </c>
       <c r="S11">
-        <v>0.01034803983200478</v>
+        <v>0.008629874210327695</v>
       </c>
       <c r="T11">
-        <v>0.01034803983200477</v>
+        <v>0.008629874210327695</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>16.819787</v>
       </c>
       <c r="I12">
-        <v>0.2376170561365961</v>
+        <v>0.1335292628838099</v>
       </c>
       <c r="J12">
-        <v>0.237617056136596</v>
+        <v>0.1335292628838099</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>665.7853396666667</v>
+        <v>750.176575</v>
       </c>
       <c r="N12">
-        <v>1997.356019</v>
+        <v>2250.529725</v>
       </c>
       <c r="O12">
-        <v>0.522325640417338</v>
+        <v>0.4266069892474147</v>
       </c>
       <c r="P12">
-        <v>0.522325640417338</v>
+        <v>0.4266069892474147</v>
       </c>
       <c r="Q12">
-        <v>3732.789200305328</v>
+        <v>4205.936734629841</v>
       </c>
       <c r="R12">
-        <v>33595.10280274795</v>
+        <v>37853.43061166857</v>
       </c>
       <c r="S12">
-        <v>0.1241134810206301</v>
+        <v>0.0569645168152887</v>
       </c>
       <c r="T12">
-        <v>0.1241134810206301</v>
+        <v>0.0569645168152887</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>16.819787</v>
       </c>
       <c r="I13">
-        <v>0.2376170561365961</v>
+        <v>0.1335292628838099</v>
       </c>
       <c r="J13">
-        <v>0.237617056136596</v>
+        <v>0.1335292628838099</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>147.9815903333333</v>
+        <v>227.123347</v>
       </c>
       <c r="N13">
-        <v>443.9447709999999</v>
+        <v>681.370041</v>
       </c>
       <c r="O13">
-        <v>0.1160953453549051</v>
+        <v>0.1291594678912306</v>
       </c>
       <c r="P13">
-        <v>0.1160953453549051</v>
+        <v>0.1291594678912306</v>
       </c>
       <c r="Q13">
-        <v>829.6729431093084</v>
+        <v>1273.38877308903</v>
       </c>
       <c r="R13">
-        <v>7467.056487983775</v>
+        <v>11460.49895780127</v>
       </c>
       <c r="S13">
-        <v>0.027586234194394</v>
+        <v>0.01724656854198114</v>
       </c>
       <c r="T13">
-        <v>0.027586234194394</v>
+        <v>0.01724656854198114</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1.773942666666667</v>
+        <v>1.276785333333333</v>
       </c>
       <c r="H14">
-        <v>5.321828</v>
+        <v>3.830356</v>
       </c>
       <c r="I14">
-        <v>0.07518270609641543</v>
+        <v>0.03040850715068976</v>
       </c>
       <c r="J14">
-        <v>0.07518270609641541</v>
+        <v>0.03040850715068975</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>10.45505566666667</v>
+        <v>43.70915533333334</v>
       </c>
       <c r="N14">
-        <v>31.365167</v>
+        <v>131.127466</v>
       </c>
       <c r="O14">
-        <v>0.008202258778219226</v>
+        <v>0.0248563228721197</v>
       </c>
       <c r="P14">
-        <v>0.008202258778219226</v>
+        <v>0.02485632287211969</v>
       </c>
       <c r="Q14">
-        <v>18.54666932947511</v>
+        <v>55.80720846198845</v>
       </c>
       <c r="R14">
-        <v>166.920023965276</v>
+        <v>502.264876157896</v>
       </c>
       <c r="S14">
-        <v>0.0006166680110495996</v>
+        <v>0.0007558436717967051</v>
       </c>
       <c r="T14">
-        <v>0.0006166680110495994</v>
+        <v>0.0007558436717967049</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1.773942666666667</v>
+        <v>1.276785333333333</v>
       </c>
       <c r="H15">
-        <v>5.321828</v>
+        <v>3.830356</v>
       </c>
       <c r="I15">
-        <v>0.07518270609641543</v>
+        <v>0.03040850715068976</v>
       </c>
       <c r="J15">
-        <v>0.07518270609641541</v>
+        <v>0.03040850715068975</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>502.283203</v>
       </c>
       <c r="O15">
-        <v>0.1313513430666197</v>
+        <v>0.09521203945945574</v>
       </c>
       <c r="P15">
-        <v>0.1313513430666197</v>
+        <v>0.09521203945945574</v>
       </c>
       <c r="Q15">
-        <v>297.0072015172316</v>
+        <v>213.7692755900298</v>
       </c>
       <c r="R15">
-        <v>2673.064813655084</v>
+        <v>1923.923480310268</v>
       </c>
       <c r="S15">
-        <v>0.009875349421147105</v>
+        <v>0.002895255982734615</v>
       </c>
       <c r="T15">
-        <v>0.009875349421147102</v>
+        <v>0.002895255982734615</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1.773942666666667</v>
+        <v>1.276785333333333</v>
       </c>
       <c r="H16">
-        <v>5.321828</v>
+        <v>3.830356</v>
       </c>
       <c r="I16">
-        <v>0.07518270609641543</v>
+        <v>0.03040850715068976</v>
       </c>
       <c r="J16">
-        <v>0.07518270609641541</v>
+        <v>0.03040850715068975</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>227.495678</v>
+        <v>456.387034</v>
       </c>
       <c r="N16">
-        <v>682.4870339999999</v>
+        <v>1369.161102</v>
       </c>
       <c r="O16">
-        <v>0.1784761823728629</v>
+        <v>0.259536094560534</v>
       </c>
       <c r="P16">
-        <v>0.1784761823728629</v>
+        <v>0.259536094560534</v>
       </c>
       <c r="Q16">
-        <v>403.5642896864613</v>
+        <v>582.7082713347014</v>
       </c>
       <c r="R16">
-        <v>3632.078607178151</v>
+        <v>5244.374442012312</v>
       </c>
       <c r="S16">
-        <v>0.01341832236454919</v>
+        <v>0.007892105187306091</v>
       </c>
       <c r="T16">
-        <v>0.01341832236454919</v>
+        <v>0.007892105187306091</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>1.773942666666667</v>
+        <v>1.276785333333333</v>
       </c>
       <c r="H17">
-        <v>5.321828</v>
+        <v>3.830356</v>
       </c>
       <c r="I17">
-        <v>0.07518270609641543</v>
+        <v>0.03040850715068976</v>
       </c>
       <c r="J17">
-        <v>0.07518270609641541</v>
+        <v>0.03040850715068975</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>55.51027300000001</v>
+        <v>113.6484576666667</v>
       </c>
       <c r="N17">
-        <v>166.530819</v>
+        <v>340.945373</v>
       </c>
       <c r="O17">
-        <v>0.04354923001005501</v>
+        <v>0.06462908596924523</v>
       </c>
       <c r="P17">
-        <v>0.04354923001005501</v>
+        <v>0.06462908596924523</v>
       </c>
       <c r="Q17">
-        <v>98.47204171301468</v>
+        <v>145.1046839047542</v>
       </c>
       <c r="R17">
-        <v>886.248375417132</v>
+        <v>1305.942155142788</v>
       </c>
       <c r="S17">
-        <v>0.003274148960571161</v>
+        <v>0.001965274022838337</v>
       </c>
       <c r="T17">
-        <v>0.003274148960571159</v>
+        <v>0.001965274022838336</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>1.773942666666667</v>
+        <v>1.276785333333333</v>
       </c>
       <c r="H18">
-        <v>5.321828</v>
+        <v>3.830356</v>
       </c>
       <c r="I18">
-        <v>0.07518270609641543</v>
+        <v>0.03040850715068976</v>
       </c>
       <c r="J18">
-        <v>0.07518270609641541</v>
+        <v>0.03040850715068975</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>665.7853396666667</v>
+        <v>750.176575</v>
       </c>
       <c r="N18">
-        <v>1997.356019</v>
+        <v>2250.529725</v>
       </c>
       <c r="O18">
-        <v>0.522325640417338</v>
+        <v>0.4266069892474147</v>
       </c>
       <c r="P18">
-        <v>0.522325640417338</v>
+        <v>0.4266069892474147</v>
       </c>
       <c r="Q18">
-        <v>1181.065020875859</v>
+        <v>957.8144483702333</v>
       </c>
       <c r="R18">
-        <v>10629.58518788273</v>
+        <v>8620.330035332099</v>
       </c>
       <c r="S18">
-        <v>0.03926985511011869</v>
+        <v>0.01297248168306424</v>
       </c>
       <c r="T18">
-        <v>0.03926985511011868</v>
+        <v>0.01297248168306424</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>1.773942666666667</v>
+        <v>1.276785333333333</v>
       </c>
       <c r="H19">
-        <v>5.321828</v>
+        <v>3.830356</v>
       </c>
       <c r="I19">
-        <v>0.07518270609641543</v>
+        <v>0.03040850715068976</v>
       </c>
       <c r="J19">
-        <v>0.07518270609641541</v>
+        <v>0.03040850715068975</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>147.9815903333333</v>
+        <v>227.123347</v>
       </c>
       <c r="N19">
-        <v>443.9447709999999</v>
+        <v>681.370041</v>
       </c>
       <c r="O19">
-        <v>0.1160953453549051</v>
+        <v>0.1291594678912306</v>
       </c>
       <c r="P19">
-        <v>0.1160953453549051</v>
+        <v>0.1291594678912306</v>
       </c>
       <c r="Q19">
-        <v>262.5108569734875</v>
+        <v>289.9877583071773</v>
       </c>
       <c r="R19">
-        <v>2362.597712761388</v>
+        <v>2609.889824764596</v>
       </c>
       <c r="S19">
-        <v>0.008728362228979681</v>
+        <v>0.00392754660294977</v>
       </c>
       <c r="T19">
-        <v>0.008728362228979677</v>
+        <v>0.00392754660294977</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>5.954772000000001</v>
+        <v>7.010421333333333</v>
       </c>
       <c r="H20">
-        <v>17.864316</v>
+        <v>21.031264</v>
       </c>
       <c r="I20">
-        <v>0.2523733610784663</v>
+        <v>0.1669634210846313</v>
       </c>
       <c r="J20">
-        <v>0.2523733610784662</v>
+        <v>0.1669634210846313</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>10.45505566666667</v>
+        <v>43.70915533333334</v>
       </c>
       <c r="N20">
-        <v>31.365167</v>
+        <v>131.127466</v>
       </c>
       <c r="O20">
-        <v>0.008202258778219226</v>
+        <v>0.0248563228721197</v>
       </c>
       <c r="P20">
-        <v>0.008202258778219226</v>
+        <v>0.02485632287211969</v>
       </c>
       <c r="Q20">
-        <v>62.25747274230801</v>
+        <v>306.4195950107805</v>
       </c>
       <c r="R20">
-        <v>560.3172546807721</v>
+        <v>2757.776355097024</v>
       </c>
       <c r="S20">
-        <v>0.00207003161629454</v>
+        <v>0.004150096702313273</v>
       </c>
       <c r="T20">
-        <v>0.00207003161629454</v>
+        <v>0.004150096702313272</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>5.954772000000001</v>
+        <v>7.010421333333333</v>
       </c>
       <c r="H21">
-        <v>17.864316</v>
+        <v>21.031264</v>
       </c>
       <c r="I21">
-        <v>0.2523733610784663</v>
+        <v>0.1669634210846313</v>
       </c>
       <c r="J21">
-        <v>0.2523733610784662</v>
+        <v>0.1669634210846313</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>502.283203</v>
       </c>
       <c r="O21">
-        <v>0.1313513430666197</v>
+        <v>0.09521203945945574</v>
       </c>
       <c r="P21">
-        <v>0.1313513430666197</v>
+        <v>0.09521203945945574</v>
       </c>
       <c r="Q21">
-        <v>996.9939844315722</v>
+        <v>1173.738960562066</v>
       </c>
       <c r="R21">
-        <v>8972.94585988415</v>
+        <v>10563.65064505859</v>
       </c>
       <c r="S21">
-        <v>0.03314957993189351</v>
+        <v>0.01589692783659564</v>
       </c>
       <c r="T21">
-        <v>0.03314957993189351</v>
+        <v>0.01589692783659564</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>5.954772000000001</v>
+        <v>7.010421333333333</v>
       </c>
       <c r="H22">
-        <v>17.864316</v>
+        <v>21.031264</v>
       </c>
       <c r="I22">
-        <v>0.2523733610784663</v>
+        <v>0.1669634210846313</v>
       </c>
       <c r="J22">
-        <v>0.2523733610784662</v>
+        <v>0.1669634210846313</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>227.495678</v>
+        <v>456.387034</v>
       </c>
       <c r="N22">
-        <v>682.4870339999999</v>
+        <v>1369.161102</v>
       </c>
       <c r="O22">
-        <v>0.1784761823728629</v>
+        <v>0.259536094560534</v>
       </c>
       <c r="P22">
-        <v>0.1784761823728629</v>
+        <v>0.259536094560534</v>
       </c>
       <c r="Q22">
-        <v>1354.684893475416</v>
+        <v>3199.465399410326</v>
       </c>
       <c r="R22">
-        <v>12192.16404127874</v>
+        <v>28795.18859469293</v>
       </c>
       <c r="S22">
-        <v>0.04504263401789273</v>
+        <v>0.04333303424277113</v>
       </c>
       <c r="T22">
-        <v>0.04504263401789272</v>
+        <v>0.04333303424277113</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>5.954772000000001</v>
+        <v>7.010421333333333</v>
       </c>
       <c r="H23">
-        <v>17.864316</v>
+        <v>21.031264</v>
       </c>
       <c r="I23">
-        <v>0.2523733610784663</v>
+        <v>0.1669634210846313</v>
       </c>
       <c r="J23">
-        <v>0.2523733610784662</v>
+        <v>0.1669634210846313</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>55.51027300000001</v>
+        <v>113.6484576666667</v>
       </c>
       <c r="N23">
-        <v>166.530819</v>
+        <v>340.945373</v>
       </c>
       <c r="O23">
-        <v>0.04354923001005501</v>
+        <v>0.06462908596924523</v>
       </c>
       <c r="P23">
-        <v>0.04354923001005501</v>
+        <v>0.06462908596924523</v>
       </c>
       <c r="Q23">
-        <v>330.5510193727561</v>
+        <v>796.7235721268303</v>
       </c>
       <c r="R23">
-        <v>2974.959174354804</v>
+        <v>7170.512149141472</v>
       </c>
       <c r="S23">
-        <v>0.01099066555001679</v>
+        <v>0.01079069329499793</v>
       </c>
       <c r="T23">
-        <v>0.01099066555001679</v>
+        <v>0.01079069329499793</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>5.954772000000001</v>
+        <v>7.010421333333333</v>
       </c>
       <c r="H24">
-        <v>17.864316</v>
+        <v>21.031264</v>
       </c>
       <c r="I24">
-        <v>0.2523733610784663</v>
+        <v>0.1669634210846313</v>
       </c>
       <c r="J24">
-        <v>0.2523733610784662</v>
+        <v>0.1669634210846313</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>665.7853396666667</v>
+        <v>750.176575</v>
       </c>
       <c r="N24">
-        <v>1997.356019</v>
+        <v>2250.529725</v>
       </c>
       <c r="O24">
-        <v>0.522325640417338</v>
+        <v>0.4266069892474147</v>
       </c>
       <c r="P24">
-        <v>0.522325640417338</v>
+        <v>0.4266069892474147</v>
       </c>
       <c r="Q24">
-        <v>3964.599898657557</v>
+        <v>5259.053865146933</v>
       </c>
       <c r="R24">
-        <v>35681.39908791801</v>
+        <v>47331.4847863224</v>
       </c>
       <c r="S24">
-        <v>0.131821077449586</v>
+        <v>0.07122776238336288</v>
       </c>
       <c r="T24">
-        <v>0.1318210774495859</v>
+        <v>0.07122776238336288</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>5.954772000000001</v>
+        <v>7.010421333333333</v>
       </c>
       <c r="H25">
-        <v>17.864316</v>
+        <v>21.031264</v>
       </c>
       <c r="I25">
-        <v>0.2523733610784663</v>
+        <v>0.1669634210846313</v>
       </c>
       <c r="J25">
-        <v>0.2523733610784662</v>
+        <v>0.1669634210846313</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>147.9815903333333</v>
+        <v>227.123347</v>
       </c>
       <c r="N25">
-        <v>443.9447709999999</v>
+        <v>681.370041</v>
       </c>
       <c r="O25">
-        <v>0.1160953453549051</v>
+        <v>0.1291594678912306</v>
       </c>
       <c r="P25">
-        <v>0.1160953453549051</v>
+        <v>0.1291594678912306</v>
       </c>
       <c r="Q25">
-        <v>881.1966306324041</v>
+        <v>1592.230357106869</v>
       </c>
       <c r="R25">
-        <v>7930.769675691636</v>
+        <v>14330.07321396182</v>
       </c>
       <c r="S25">
-        <v>0.02929937251278271</v>
+        <v>0.02156490662459045</v>
       </c>
       <c r="T25">
-        <v>0.0292993725127827</v>
+        <v>0.02156490662459045</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>2.472614</v>
+        <v>4.705559666666667</v>
       </c>
       <c r="H26">
-        <v>7.417842</v>
+        <v>14.116679</v>
       </c>
       <c r="I26">
-        <v>0.1047935850154583</v>
+        <v>0.1120697747978235</v>
       </c>
       <c r="J26">
-        <v>0.1047935850154583</v>
+        <v>0.1120697747978235</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>10.45505566666667</v>
+        <v>43.70915533333334</v>
       </c>
       <c r="N26">
-        <v>31.365167</v>
+        <v>131.127466</v>
       </c>
       <c r="O26">
-        <v>0.008202258778219226</v>
+        <v>0.0248563228721197</v>
       </c>
       <c r="P26">
-        <v>0.008202258778219226</v>
+        <v>0.02485632287211969</v>
       </c>
       <c r="Q26">
-        <v>25.85131701217933</v>
+        <v>205.6760384006016</v>
       </c>
       <c r="R26">
-        <v>232.661853109614</v>
+        <v>1851.084345605414</v>
       </c>
       <c r="S26">
-        <v>0.0008595441025941055</v>
+        <v>0.002785642506580443</v>
       </c>
       <c r="T26">
-        <v>0.0008595441025941054</v>
+        <v>0.002785642506580442</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>2.472614</v>
+        <v>4.705559666666667</v>
       </c>
       <c r="H27">
-        <v>7.417842</v>
+        <v>14.116679</v>
       </c>
       <c r="I27">
-        <v>0.1047935850154583</v>
+        <v>0.1120697747978235</v>
       </c>
       <c r="J27">
-        <v>0.1047935850154583</v>
+        <v>0.1120697747978235</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>502.283203</v>
       </c>
       <c r="O27">
-        <v>0.1313513430666197</v>
+        <v>0.09521203945945574</v>
       </c>
       <c r="P27">
-        <v>0.1313513430666197</v>
+        <v>0.09521203945945574</v>
       </c>
       <c r="Q27">
-        <v>413.9841599008807</v>
+        <v>787.8411937603153</v>
       </c>
       <c r="R27">
-        <v>3725.857439107926</v>
+        <v>7090.570743842837</v>
       </c>
       <c r="S27">
-        <v>0.01376477813654644</v>
+        <v>0.01067039182026269</v>
       </c>
       <c r="T27">
-        <v>0.01376477813654644</v>
+        <v>0.01067039182026269</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>2.472614</v>
+        <v>4.705559666666667</v>
       </c>
       <c r="H28">
-        <v>7.417842</v>
+        <v>14.116679</v>
       </c>
       <c r="I28">
-        <v>0.1047935850154583</v>
+        <v>0.1120697747978235</v>
       </c>
       <c r="J28">
-        <v>0.1047935850154583</v>
+        <v>0.1120697747978235</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>227.495678</v>
+        <v>456.387034</v>
       </c>
       <c r="N28">
-        <v>682.4870339999999</v>
+        <v>1369.161102</v>
       </c>
       <c r="O28">
-        <v>0.1784761823728629</v>
+        <v>0.259536094560534</v>
       </c>
       <c r="P28">
-        <v>0.1784761823728629</v>
+        <v>0.259536094560534</v>
       </c>
       <c r="Q28">
-        <v>562.5089983622919</v>
+        <v>2147.556419580029</v>
       </c>
       <c r="R28">
-        <v>5062.580985260627</v>
+        <v>19328.00777622026</v>
       </c>
       <c r="S28">
-        <v>0.01870315899072505</v>
+        <v>0.02908615166930566</v>
       </c>
       <c r="T28">
-        <v>0.01870315899072505</v>
+        <v>0.02908615166930566</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>2.472614</v>
+        <v>4.705559666666667</v>
       </c>
       <c r="H29">
-        <v>7.417842</v>
+        <v>14.116679</v>
       </c>
       <c r="I29">
-        <v>0.1047935850154583</v>
+        <v>0.1120697747978235</v>
       </c>
       <c r="J29">
-        <v>0.1047935850154583</v>
+        <v>0.1120697747978235</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>55.51027300000001</v>
+        <v>113.6484576666667</v>
       </c>
       <c r="N29">
-        <v>166.530819</v>
+        <v>340.945373</v>
       </c>
       <c r="O29">
-        <v>0.04354923001005501</v>
+        <v>0.06462908596924523</v>
       </c>
       <c r="P29">
-        <v>0.04354923001005501</v>
+        <v>0.06462908596924523</v>
       </c>
       <c r="Q29">
-        <v>137.255478163622</v>
+        <v>534.7795985751408</v>
       </c>
       <c r="R29">
-        <v>1235.299303472598</v>
+        <v>4813.016387176267</v>
       </c>
       <c r="S29">
-        <v>0.004563679937416448</v>
+        <v>0.007242967109962486</v>
       </c>
       <c r="T29">
-        <v>0.004563679937416447</v>
+        <v>0.007242967109962485</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>2.472614</v>
+        <v>4.705559666666667</v>
       </c>
       <c r="H30">
-        <v>7.417842</v>
+        <v>14.116679</v>
       </c>
       <c r="I30">
-        <v>0.1047935850154583</v>
+        <v>0.1120697747978235</v>
       </c>
       <c r="J30">
-        <v>0.1047935850154583</v>
+        <v>0.1120697747978235</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>665.7853396666667</v>
+        <v>750.176575</v>
       </c>
       <c r="N30">
-        <v>1997.356019</v>
+        <v>2250.529725</v>
       </c>
       <c r="O30">
-        <v>0.522325640417338</v>
+        <v>0.4266069892474147</v>
       </c>
       <c r="P30">
-        <v>0.522325640417338</v>
+        <v>0.4266069892474147</v>
       </c>
       <c r="Q30">
-        <v>1646.230151854556</v>
+        <v>3530.000634198142</v>
       </c>
       <c r="R30">
-        <v>14816.071366691</v>
+        <v>31770.00570778327</v>
       </c>
       <c r="S30">
-        <v>0.05473637640482801</v>
+        <v>0.04780974921213527</v>
       </c>
       <c r="T30">
-        <v>0.054736376404828</v>
+        <v>0.04780974921213527</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>2.472614</v>
+        <v>4.705559666666667</v>
       </c>
       <c r="H31">
-        <v>7.417842</v>
+        <v>14.116679</v>
       </c>
       <c r="I31">
-        <v>0.1047935850154583</v>
+        <v>0.1120697747978235</v>
       </c>
       <c r="J31">
-        <v>0.1047935850154583</v>
+        <v>0.1120697747978235</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>147.9815903333333</v>
+        <v>227.123347</v>
       </c>
       <c r="N31">
-        <v>443.9447709999999</v>
+        <v>681.370041</v>
       </c>
       <c r="O31">
-        <v>0.1160953453549051</v>
+        <v>0.1291594678912306</v>
       </c>
       <c r="P31">
-        <v>0.1160953453549051</v>
+        <v>0.1291594678912306</v>
       </c>
       <c r="Q31">
-        <v>365.9013520004646</v>
+        <v>1068.742461001538</v>
       </c>
       <c r="R31">
-        <v>3293.112168004182</v>
+        <v>9618.682149013839</v>
       </c>
       <c r="S31">
-        <v>0.01216604744334824</v>
+        <v>0.01447487247957693</v>
       </c>
       <c r="T31">
-        <v>0.01216604744334824</v>
+        <v>0.01447487247957692</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>2.187066</v>
+        <v>1.697131666666666</v>
       </c>
       <c r="H32">
-        <v>6.561197999999999</v>
+        <v>5.091394999999999</v>
       </c>
       <c r="I32">
-        <v>0.09269157531479572</v>
+        <v>0.04041966889356657</v>
       </c>
       <c r="J32">
-        <v>0.0926915753147957</v>
+        <v>0.04041966889356656</v>
       </c>
       <c r="K32">
         <v>3</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>10.45505566666667</v>
+        <v>43.70915533333334</v>
       </c>
       <c r="N32">
-        <v>31.365167</v>
+        <v>131.127466</v>
       </c>
       <c r="O32">
-        <v>0.008202258778219226</v>
+        <v>0.0248563228721197</v>
       </c>
       <c r="P32">
-        <v>0.008202258778219226</v>
+        <v>0.02485632287211969</v>
       </c>
       <c r="Q32">
-        <v>22.865896776674</v>
+        <v>74.18019163945222</v>
       </c>
       <c r="R32">
-        <v>205.793070990066</v>
+        <v>667.6217247550699</v>
       </c>
       <c r="S32">
-        <v>0.0007602802872927517</v>
+        <v>0.001004684340402664</v>
       </c>
       <c r="T32">
-        <v>0.0007602802872927516</v>
+        <v>0.001004684340402663</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>2.187066</v>
+        <v>1.697131666666666</v>
       </c>
       <c r="H33">
-        <v>6.561197999999999</v>
+        <v>5.091394999999999</v>
       </c>
       <c r="I33">
-        <v>0.09269157531479572</v>
+        <v>0.04041966889356657</v>
       </c>
       <c r="J33">
-        <v>0.0926915753147957</v>
+        <v>0.04041966889356656</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>502.283203</v>
       </c>
       <c r="O33">
-        <v>0.1313513430666197</v>
+        <v>0.09521203945945574</v>
       </c>
       <c r="P33">
-        <v>0.1313513430666197</v>
+        <v>0.09521203945945574</v>
       </c>
       <c r="Q33">
-        <v>366.175505217466</v>
+        <v>284.1469098153539</v>
       </c>
       <c r="R33">
-        <v>3295.579546957194</v>
+        <v>2557.322188338185</v>
       </c>
       <c r="S33">
-        <v>0.01217516290855915</v>
+        <v>0.003848439109632396</v>
       </c>
       <c r="T33">
-        <v>0.01217516290855915</v>
+        <v>0.003848439109632395</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>2.187066</v>
+        <v>1.697131666666666</v>
       </c>
       <c r="H34">
-        <v>6.561197999999999</v>
+        <v>5.091394999999999</v>
       </c>
       <c r="I34">
-        <v>0.09269157531479572</v>
+        <v>0.04041966889356657</v>
       </c>
       <c r="J34">
-        <v>0.0926915753147957</v>
+        <v>0.04041966889356656</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>227.495678</v>
+        <v>456.387034</v>
       </c>
       <c r="N34">
-        <v>682.4870339999999</v>
+        <v>1369.161102</v>
       </c>
       <c r="O34">
-        <v>0.1784761823728629</v>
+        <v>0.259536094560534</v>
       </c>
       <c r="P34">
-        <v>0.1784761823728629</v>
+        <v>0.259536094560534</v>
       </c>
       <c r="Q34">
-        <v>497.5480625007478</v>
+        <v>774.5488876574766</v>
       </c>
       <c r="R34">
-        <v>4477.93256250673</v>
+        <v>6970.939988917289</v>
       </c>
       <c r="S34">
-        <v>0.01654323850031144</v>
+        <v>0.01049036300806617</v>
       </c>
       <c r="T34">
-        <v>0.01654323850031144</v>
+        <v>0.01049036300806616</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>2.187066</v>
+        <v>1.697131666666666</v>
       </c>
       <c r="H35">
-        <v>6.561197999999999</v>
+        <v>5.091394999999999</v>
       </c>
       <c r="I35">
-        <v>0.09269157531479572</v>
+        <v>0.04041966889356657</v>
       </c>
       <c r="J35">
-        <v>0.0926915753147957</v>
+        <v>0.04041966889356656</v>
       </c>
       <c r="K35">
         <v>3</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>55.51027300000001</v>
+        <v>113.6484576666667</v>
       </c>
       <c r="N35">
-        <v>166.530819</v>
+        <v>340.945373</v>
       </c>
       <c r="O35">
-        <v>0.04354923001005501</v>
+        <v>0.06462908596924523</v>
       </c>
       <c r="P35">
-        <v>0.04354923001005501</v>
+        <v>0.06462908596924523</v>
       </c>
       <c r="Q35">
-        <v>121.404630729018</v>
+        <v>192.8763963739261</v>
       </c>
       <c r="R35">
-        <v>1092.641676561162</v>
+        <v>1735.887567365335</v>
       </c>
       <c r="S35">
-        <v>0.004036646733378376</v>
+        <v>0.002612286255770741</v>
       </c>
       <c r="T35">
-        <v>0.004036646733378375</v>
+        <v>0.00261228625577074</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>2.187066</v>
+        <v>1.697131666666666</v>
       </c>
       <c r="H36">
-        <v>6.561197999999999</v>
+        <v>5.091394999999999</v>
       </c>
       <c r="I36">
-        <v>0.09269157531479572</v>
+        <v>0.04041966889356657</v>
       </c>
       <c r="J36">
-        <v>0.0926915753147957</v>
+        <v>0.04041966889356656</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>665.7853396666667</v>
+        <v>750.176575</v>
       </c>
       <c r="N36">
-        <v>1997.356019</v>
+        <v>2250.529725</v>
       </c>
       <c r="O36">
-        <v>0.522325640417338</v>
+        <v>0.4266069892474147</v>
       </c>
       <c r="P36">
-        <v>0.522325640417338</v>
+        <v>0.4266069892474147</v>
       </c>
       <c r="Q36">
-        <v>1456.116479683418</v>
+        <v>1273.148421024041</v>
       </c>
       <c r="R36">
-        <v>13105.04831715076</v>
+        <v>11458.33578921637</v>
       </c>
       <c r="S36">
-        <v>0.04841518643759259</v>
+        <v>0.01724331325306182</v>
       </c>
       <c r="T36">
-        <v>0.04841518643759258</v>
+        <v>0.01724331325306181</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>2.187066</v>
+        <v>1.697131666666666</v>
       </c>
       <c r="H37">
-        <v>6.561197999999999</v>
+        <v>5.091394999999999</v>
       </c>
       <c r="I37">
-        <v>0.09269157531479572</v>
+        <v>0.04041966889356657</v>
       </c>
       <c r="J37">
-        <v>0.0926915753147957</v>
+        <v>0.04041966889356656</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>147.9815903333333</v>
+        <v>227.123347</v>
       </c>
       <c r="N37">
-        <v>443.9447709999999</v>
+        <v>681.370041</v>
       </c>
       <c r="O37">
-        <v>0.1160953453549051</v>
+        <v>0.1291594678912306</v>
       </c>
       <c r="P37">
-        <v>0.1160953453549051</v>
+        <v>0.1291594678912306</v>
       </c>
       <c r="Q37">
-        <v>323.6455048439619</v>
+        <v>385.4582244330216</v>
       </c>
       <c r="R37">
-        <v>2912.809543595657</v>
+        <v>3469.124019897195</v>
       </c>
       <c r="S37">
-        <v>0.01076106044766141</v>
+        <v>0.005220582926632784</v>
       </c>
       <c r="T37">
-        <v>0.01076106044766141</v>
+        <v>0.005220582926632783</v>
       </c>
     </row>
   </sheetData>
